--- a/results/merge/Results Summary Statistics.xlsx
+++ b/results/merge/Results Summary Statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/CovidLongitudinal-main/code/merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88351C0-3ED8-9943-A9F1-3DEC512567E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5DEEBC-B637-2442-8B2D-0ACECB12ADED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="660" windowWidth="25440" windowHeight="14060" xr2:uid="{1C1A4ACA-5BF2-2840-8835-2F449688015C}"/>
   </bookViews>
@@ -983,10 +983,10 @@
   <dimension ref="A1:R203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R203" sqref="R203"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,25 +1126,25 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="1">
         <v>10.4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="1">
         <v>54.6</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="1">
         <v>1.8</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="1">
         <v>10.8</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="1">
         <v>-277.89999999999998</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="1">
         <v>378.3</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="1">
         <v>656.3</v>
       </c>
       <c r="K3" s="10">
@@ -1406,25 +1406,25 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="1">
         <v>6.8</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="1">
         <v>38.1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="1">
         <v>2.7</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="1">
         <v>11.5</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="1">
         <v>-191.7</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="1">
         <v>228.9</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="1">
         <v>420.7</v>
       </c>
       <c r="K8" s="10">
@@ -1518,25 +1518,25 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="1">
         <v>38.1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="1">
         <v>88.8</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="1">
         <v>10.5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="1">
         <v>27.8</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="1">
         <v>0.1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="1">
         <v>780</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="1">
         <v>779.9</v>
       </c>
       <c r="K10" s="10">
@@ -1798,25 +1798,25 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="1">
         <v>38.299999999999997</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="1">
         <v>91.7</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="1">
         <v>12.3</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="1">
         <v>26.1</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="1">
         <v>0.1</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="1">
         <v>921.2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="1">
         <v>921.2</v>
       </c>
       <c r="K15" s="10">
@@ -1910,25 +1910,25 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="1">
         <v>758</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="1">
         <v>2149.1</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="1">
         <v>193.2</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="1">
         <v>600.6</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="1">
         <v>-46.9</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="1">
         <v>22888.3</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="1">
         <v>22935.200000000001</v>
       </c>
       <c r="K17" s="10">
@@ -2190,25 +2190,25 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="1">
         <v>1870.7</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="1">
         <v>3713.6</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="1">
         <v>380</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="1">
         <v>1679.6</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="1">
         <v>-53.7</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="1">
         <v>23640.7</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="1">
         <v>23694.3</v>
       </c>
       <c r="K22" s="10">
@@ -2715,7 +2715,7 @@
       <c r="J31" s="4">
         <v>87.6</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="3">
         <v>46</v>
       </c>
       <c r="L31" s="11">
@@ -2771,7 +2771,7 @@
       <c r="J32" s="1">
         <v>40.1</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32">
         <v>44</v>
       </c>
       <c r="L32" s="10">
@@ -2827,7 +2827,7 @@
       <c r="J33" s="1">
         <v>165.4</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33">
         <v>47</v>
       </c>
       <c r="L33" s="10">
@@ -2883,7 +2883,7 @@
       <c r="J34" s="1">
         <v>24.3</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34">
         <v>48</v>
       </c>
       <c r="L34" s="10">
@@ -2939,7 +2939,7 @@
       <c r="J35" s="1">
         <v>11.7</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" s="10">
@@ -2995,7 +2995,7 @@
       <c r="J36" s="1">
         <v>0</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" s="10">
@@ -3051,7 +3051,7 @@
       <c r="J37" s="1">
         <v>64.099999999999994</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37">
         <v>48</v>
       </c>
       <c r="L37" s="10">
@@ -3107,7 +3107,7 @@
       <c r="J38" s="6">
         <v>176.3</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="5">
         <v>46</v>
       </c>
       <c r="L38" s="12">
@@ -3163,7 +3163,7 @@
       <c r="J39" s="1">
         <v>88.5</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39">
         <v>44</v>
       </c>
       <c r="L39" s="10">
@@ -3219,7 +3219,7 @@
       <c r="J40" s="1">
         <v>168.3</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40">
         <v>47</v>
       </c>
       <c r="L40" s="10">
@@ -3275,7 +3275,7 @@
       <c r="J41" s="1">
         <v>68.7</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41">
         <v>48</v>
       </c>
       <c r="L41" s="10">
@@ -3331,7 +3331,7 @@
       <c r="J42" s="1">
         <v>41.7</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42">
         <v>3</v>
       </c>
       <c r="L42" s="10">
@@ -3387,7 +3387,7 @@
       <c r="J43" s="1">
         <v>0</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="10">
@@ -3443,7 +3443,7 @@
       <c r="J44" s="1">
         <v>107.9</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44">
         <v>48</v>
       </c>
       <c r="L44" s="10">
@@ -3499,7 +3499,7 @@
       <c r="J45" s="6">
         <v>85118</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="5">
         <v>46</v>
       </c>
       <c r="L45" s="12">
@@ -3555,7 +3555,7 @@
       <c r="J46" s="1">
         <v>11659.7</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46">
         <v>44</v>
       </c>
       <c r="L46" s="10">
@@ -3611,7 +3611,7 @@
       <c r="J47" s="1">
         <v>49749.1</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47">
         <v>47</v>
       </c>
       <c r="L47" s="10">
@@ -3667,7 +3667,7 @@
       <c r="J48" s="1">
         <v>351.4</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48">
         <v>48</v>
       </c>
       <c r="L48" s="10">
@@ -3723,7 +3723,7 @@
       <c r="J49" s="1">
         <v>209.5</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49">
         <v>3</v>
       </c>
       <c r="L49" s="10">
@@ -3779,7 +3779,7 @@
       <c r="J50" s="1">
         <v>0</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="10">
@@ -3835,7 +3835,7 @@
       <c r="J51" s="1">
         <v>23694.3</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51">
         <v>48</v>
       </c>
       <c r="L51" s="10">
@@ -3891,7 +3891,7 @@
       <c r="J52" s="6">
         <v>85103</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="5">
         <v>46</v>
       </c>
       <c r="L52" s="12">
@@ -3947,7 +3947,7 @@
       <c r="J53" s="1">
         <v>11595.8</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53">
         <v>44</v>
       </c>
       <c r="L53" s="10">
@@ -4003,7 +4003,7 @@
       <c r="J54" s="1">
         <v>49744.6</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54">
         <v>47</v>
       </c>
       <c r="L54" s="10">
@@ -4059,7 +4059,7 @@
       <c r="J55" s="1">
         <v>338.7</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55">
         <v>48</v>
       </c>
       <c r="L55" s="10">
@@ -4115,7 +4115,7 @@
       <c r="J56" s="1">
         <v>0</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" s="10">
@@ -4171,7 +4171,7 @@
       <c r="J57" s="1">
         <v>185.8</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57">
         <v>3</v>
       </c>
       <c r="L57" s="10">
@@ -4227,7 +4227,7 @@
       <c r="J58" s="1">
         <v>23626.9</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K58">
         <v>48</v>
       </c>
       <c r="L58" s="10">
@@ -4339,7 +4339,7 @@
       <c r="J60" s="4">
         <v>621.5</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="3">
         <v>29</v>
       </c>
       <c r="L60" s="11">
@@ -4395,7 +4395,7 @@
       <c r="J61" s="1">
         <v>301.8</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K61">
         <v>29</v>
       </c>
       <c r="L61" s="10">
@@ -4451,7 +4451,7 @@
       <c r="J62" s="1">
         <v>615.5</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62">
         <v>33</v>
       </c>
       <c r="L62" s="10">
@@ -4507,7 +4507,7 @@
       <c r="J63" s="1">
         <v>233.2</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K63">
         <v>32</v>
       </c>
       <c r="L63" s="10">
@@ -4563,7 +4563,7 @@
       <c r="J64" s="1">
         <v>274.7</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64">
         <v>14</v>
       </c>
       <c r="L64" s="10">
@@ -4619,7 +4619,7 @@
       <c r="J65" s="1">
         <v>567.9</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65">
         <v>10</v>
       </c>
       <c r="L65" s="10">
@@ -4675,7 +4675,7 @@
       <c r="J66" s="1">
         <v>246.2</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66">
         <v>33</v>
       </c>
       <c r="L66" s="10">
@@ -4731,7 +4731,7 @@
       <c r="J67" s="6">
         <v>539.4</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K67" s="5">
         <v>29</v>
       </c>
       <c r="L67" s="12">
@@ -4783,7 +4783,7 @@
       <c r="J68" s="1">
         <v>388</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68">
         <v>29</v>
       </c>
       <c r="L68" s="10">
@@ -4839,7 +4839,7 @@
       <c r="J69" s="1">
         <v>674.5</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K69">
         <v>33</v>
       </c>
       <c r="L69" s="10">
@@ -4895,7 +4895,7 @@
       <c r="J70" s="1">
         <v>459.2</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70">
         <v>32</v>
       </c>
       <c r="L70" s="10">
@@ -4951,7 +4951,7 @@
       <c r="J71" s="1">
         <v>307.3</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K71">
         <v>14</v>
       </c>
       <c r="L71" s="10">
@@ -5007,7 +5007,7 @@
       <c r="J72" s="1">
         <v>584</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K72">
         <v>10</v>
       </c>
       <c r="L72" s="10">
@@ -5063,7 +5063,7 @@
       <c r="J73" s="1">
         <v>443.8</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K73">
         <v>33</v>
       </c>
       <c r="L73" s="10">
@@ -5119,7 +5119,7 @@
       <c r="J74" s="6">
         <v>782.5</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="5">
         <v>29</v>
       </c>
       <c r="L74" s="12">
@@ -5175,7 +5175,7 @@
       <c r="J75" s="1">
         <v>4451.5</v>
       </c>
-      <c r="K75" s="10">
+      <c r="K75">
         <v>29</v>
       </c>
       <c r="L75" s="10">
@@ -5231,7 +5231,7 @@
       <c r="J76" s="1">
         <v>11793.5</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K76">
         <v>33</v>
       </c>
       <c r="L76" s="10">
@@ -5287,7 +5287,7 @@
       <c r="J77" s="1">
         <v>312.10000000000002</v>
       </c>
-      <c r="K77" s="10">
+      <c r="K77">
         <v>32</v>
       </c>
       <c r="L77" s="10">
@@ -5343,7 +5343,7 @@
       <c r="J78" s="1">
         <v>239.5</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K78">
         <v>14</v>
       </c>
       <c r="L78" s="10">
@@ -5399,7 +5399,7 @@
       <c r="J79" s="1">
         <v>126.4</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K79">
         <v>10</v>
       </c>
       <c r="L79" s="10">
@@ -5455,7 +5455,7 @@
       <c r="J80" s="1">
         <v>2654.1</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K80">
         <v>33</v>
       </c>
       <c r="L80" s="10">
@@ -5511,7 +5511,7 @@
       <c r="J81" s="6">
         <v>768.5</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K81" s="5">
         <v>29</v>
       </c>
       <c r="L81" s="12">
@@ -5567,7 +5567,7 @@
       <c r="J82" s="1">
         <v>4426.3999999999996</v>
       </c>
-      <c r="K82" s="10">
+      <c r="K82">
         <v>29</v>
       </c>
       <c r="L82" s="10">
@@ -5623,7 +5623,7 @@
       <c r="J83" s="1">
         <v>11768.7</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K83">
         <v>33</v>
       </c>
       <c r="L83" s="10">
@@ -5679,7 +5679,7 @@
       <c r="J84" s="1">
         <v>298.7</v>
       </c>
-      <c r="K84" s="10">
+      <c r="K84">
         <v>32</v>
       </c>
       <c r="L84" s="10">
@@ -5735,7 +5735,7 @@
       <c r="J85" s="1">
         <v>64.400000000000006</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K85">
         <v>10</v>
       </c>
       <c r="L85" s="10">
@@ -5791,7 +5791,7 @@
       <c r="J86" s="1">
         <v>201.2</v>
       </c>
-      <c r="K86" s="10">
+      <c r="K86">
         <v>14</v>
       </c>
       <c r="L86" s="10">
@@ -5847,7 +5847,7 @@
       <c r="J87" s="1">
         <v>2648.6</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K87">
         <v>33</v>
       </c>
       <c r="L87" s="10">
@@ -5959,7 +5959,7 @@
       <c r="J89" s="4">
         <v>86.2</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K89" s="3">
         <v>19</v>
       </c>
       <c r="L89" s="11">
@@ -6015,7 +6015,7 @@
       <c r="J90" s="1">
         <v>96.8</v>
       </c>
-      <c r="K90" s="10">
+      <c r="K90">
         <v>21</v>
       </c>
       <c r="L90" s="10">
@@ -6071,7 +6071,7 @@
       <c r="J91" s="1">
         <v>232</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K91">
         <v>21</v>
       </c>
       <c r="L91" s="10">
@@ -6127,7 +6127,7 @@
       <c r="J92" s="1">
         <v>8.5</v>
       </c>
-      <c r="K92" s="10">
+      <c r="K92">
         <v>21</v>
       </c>
       <c r="L92" s="10">
@@ -6183,7 +6183,7 @@
       <c r="J93" s="1">
         <v>136.4</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K93">
         <v>7</v>
       </c>
       <c r="L93" s="10">
@@ -6239,7 +6239,7 @@
       <c r="J94" s="1">
         <v>115.3</v>
       </c>
-      <c r="K94" s="10">
+      <c r="K94">
         <v>5</v>
       </c>
       <c r="L94" s="10">
@@ -6295,7 +6295,7 @@
       <c r="J95" s="1">
         <v>56.3</v>
       </c>
-      <c r="K95" s="10">
+      <c r="K95">
         <v>21</v>
       </c>
       <c r="L95" s="10">
@@ -6351,7 +6351,7 @@
       <c r="J96" s="6">
         <v>190</v>
       </c>
-      <c r="K96" s="12">
+      <c r="K96" s="5">
         <v>19</v>
       </c>
       <c r="L96" s="12">
@@ -6407,7 +6407,7 @@
       <c r="J97" s="1">
         <v>121.7</v>
       </c>
-      <c r="K97" s="10">
+      <c r="K97">
         <v>21</v>
       </c>
       <c r="L97" s="10">
@@ -6463,7 +6463,7 @@
       <c r="J98" s="1">
         <v>237.7</v>
       </c>
-      <c r="K98" s="10">
+      <c r="K98">
         <v>21</v>
       </c>
       <c r="L98" s="10">
@@ -6519,7 +6519,7 @@
       <c r="J99" s="1">
         <v>126.9</v>
       </c>
-      <c r="K99" s="10">
+      <c r="K99">
         <v>21</v>
       </c>
       <c r="L99" s="10">
@@ -6575,7 +6575,7 @@
       <c r="J100" s="1">
         <v>103.1</v>
       </c>
-      <c r="K100" s="10">
+      <c r="K100">
         <v>7</v>
       </c>
       <c r="L100" s="10">
@@ -6631,7 +6631,7 @@
       <c r="J101" s="1">
         <v>114.4</v>
       </c>
-      <c r="K101" s="10">
+      <c r="K101">
         <v>5</v>
       </c>
       <c r="L101" s="10">
@@ -6687,7 +6687,7 @@
       <c r="J102" s="1">
         <v>148.80000000000001</v>
       </c>
-      <c r="K102" s="10">
+      <c r="K102">
         <v>21</v>
       </c>
       <c r="L102" s="10">
@@ -6743,7 +6743,7 @@
       <c r="J103" s="6">
         <v>4262</v>
       </c>
-      <c r="K103" s="12">
+      <c r="K103" s="5">
         <v>19</v>
       </c>
       <c r="L103" s="12">
@@ -6799,7 +6799,7 @@
       <c r="J104" s="1">
         <v>1756.5</v>
       </c>
-      <c r="K104" s="10">
+      <c r="K104">
         <v>21</v>
       </c>
       <c r="L104" s="10">
@@ -6855,7 +6855,7 @@
       <c r="J105" s="1">
         <v>79945.8</v>
       </c>
-      <c r="K105" s="10">
+      <c r="K105">
         <v>21</v>
       </c>
       <c r="L105" s="10">
@@ -6911,7 +6911,7 @@
       <c r="J106" s="1">
         <v>134</v>
       </c>
-      <c r="K106" s="10">
+      <c r="K106">
         <v>21</v>
       </c>
       <c r="L106" s="10">
@@ -6967,7 +6967,7 @@
       <c r="J107" s="1">
         <v>457.2</v>
       </c>
-      <c r="K107" s="10">
+      <c r="K107">
         <v>7</v>
       </c>
       <c r="L107" s="10">
@@ -7023,7 +7023,7 @@
       <c r="J108" s="1">
         <v>236.1</v>
       </c>
-      <c r="K108" s="10">
+      <c r="K108">
         <v>5</v>
       </c>
       <c r="L108" s="10">
@@ -7079,7 +7079,7 @@
       <c r="J109" s="1">
         <v>20571.3</v>
       </c>
-      <c r="K109" s="10">
+      <c r="K109">
         <v>21</v>
       </c>
       <c r="L109" s="10">
@@ -7135,7 +7135,7 @@
       <c r="J110" s="6">
         <v>4283</v>
       </c>
-      <c r="K110" s="12">
+      <c r="K110" s="5">
         <v>19</v>
       </c>
       <c r="L110" s="12">
@@ -7191,7 +7191,7 @@
       <c r="J111" s="1">
         <v>1720.8</v>
       </c>
-      <c r="K111" s="10">
+      <c r="K111">
         <v>21</v>
       </c>
       <c r="L111" s="10">
@@ -7247,7 +7247,7 @@
       <c r="J112" s="1">
         <v>79953.600000000006</v>
       </c>
-      <c r="K112" s="10">
+      <c r="K112">
         <v>21</v>
       </c>
       <c r="L112" s="10">
@@ -7303,7 +7303,7 @@
       <c r="J113" s="1">
         <v>161.69999999999999</v>
       </c>
-      <c r="K113" s="10">
+      <c r="K113">
         <v>21</v>
       </c>
       <c r="L113" s="10">
@@ -7359,7 +7359,7 @@
       <c r="J114" s="1">
         <v>197.7</v>
       </c>
-      <c r="K114" s="10">
+      <c r="K114">
         <v>5</v>
       </c>
       <c r="L114" s="10">
@@ -7415,7 +7415,7 @@
       <c r="J115" s="1">
         <v>406.4</v>
       </c>
-      <c r="K115" s="10">
+      <c r="K115">
         <v>7</v>
       </c>
       <c r="L115" s="10">
@@ -7471,7 +7471,7 @@
       <c r="J116" s="1">
         <v>20570</v>
       </c>
-      <c r="K116" s="10">
+      <c r="K116">
         <v>21</v>
       </c>
       <c r="L116" s="10">
@@ -7583,7 +7583,7 @@
       <c r="J118" s="4">
         <v>290.10000000000002</v>
       </c>
-      <c r="K118" s="11">
+      <c r="K118" s="3">
         <v>53</v>
       </c>
       <c r="L118" s="11">
@@ -7639,7 +7639,7 @@
       <c r="J119" s="1">
         <v>150.80000000000001</v>
       </c>
-      <c r="K119" s="10">
+      <c r="K119">
         <v>51</v>
       </c>
       <c r="L119" s="10">
@@ -7695,7 +7695,7 @@
       <c r="J120" s="1">
         <v>241.6</v>
       </c>
-      <c r="K120" s="10">
+      <c r="K120">
         <v>49</v>
       </c>
       <c r="L120" s="10">
@@ -7751,7 +7751,7 @@
       <c r="J121" s="1">
         <v>70.7</v>
       </c>
-      <c r="K121" s="10">
+      <c r="K121">
         <v>54</v>
       </c>
       <c r="L121" s="10">
@@ -7807,7 +7807,7 @@
       <c r="J122" s="1">
         <v>93.5</v>
       </c>
-      <c r="K122" s="10">
+      <c r="K122">
         <v>38</v>
       </c>
       <c r="L122" s="10">
@@ -7863,7 +7863,7 @@
       <c r="J123" s="1">
         <v>268.7</v>
       </c>
-      <c r="K123" s="10">
+      <c r="K123">
         <v>8</v>
       </c>
       <c r="L123" s="10">
@@ -7919,7 +7919,7 @@
       <c r="J124" s="1">
         <v>94.9</v>
       </c>
-      <c r="K124" s="10">
+      <c r="K124">
         <v>54</v>
       </c>
       <c r="L124" s="10">
@@ -7975,7 +7975,7 @@
       <c r="J125" s="6">
         <v>245.3</v>
       </c>
-      <c r="K125" s="12">
+      <c r="K125" s="5">
         <v>53</v>
       </c>
       <c r="L125" s="12">
@@ -8031,7 +8031,7 @@
       <c r="J126" s="1">
         <v>406.3</v>
       </c>
-      <c r="K126" s="10">
+      <c r="K126">
         <v>51</v>
       </c>
       <c r="L126" s="10">
@@ -8087,7 +8087,7 @@
       <c r="J127" s="1">
         <v>296.89999999999998</v>
       </c>
-      <c r="K127" s="10">
+      <c r="K127">
         <v>49</v>
       </c>
       <c r="L127" s="10">
@@ -8143,7 +8143,7 @@
       <c r="J128" s="1">
         <v>130.80000000000001</v>
       </c>
-      <c r="K128" s="10">
+      <c r="K128">
         <v>54</v>
       </c>
       <c r="L128" s="10">
@@ -8199,7 +8199,7 @@
       <c r="J129" s="1">
         <v>140.4</v>
       </c>
-      <c r="K129" s="10">
+      <c r="K129">
         <v>38</v>
       </c>
       <c r="L129" s="10">
@@ -8255,7 +8255,7 @@
       <c r="J130" s="1">
         <v>265.10000000000002</v>
       </c>
-      <c r="K130" s="10">
+      <c r="K130">
         <v>8</v>
       </c>
       <c r="L130" s="10">
@@ -8311,7 +8311,7 @@
       <c r="J131" s="1">
         <v>228.4</v>
       </c>
-      <c r="K131" s="10">
+      <c r="K131">
         <v>54</v>
       </c>
       <c r="L131" s="10">
@@ -8367,7 +8367,7 @@
       <c r="J132" s="6">
         <v>627.70000000000005</v>
       </c>
-      <c r="K132" s="12">
+      <c r="K132" s="5">
         <v>53</v>
       </c>
       <c r="L132" s="12">
@@ -8423,7 +8423,7 @@
       <c r="J133" s="1">
         <v>5707.1</v>
       </c>
-      <c r="K133" s="10">
+      <c r="K133">
         <v>51</v>
       </c>
       <c r="L133" s="10">
@@ -8479,7 +8479,7 @@
       <c r="J134" s="1">
         <v>15274.3</v>
       </c>
-      <c r="K134" s="10">
+      <c r="K134">
         <v>49</v>
       </c>
       <c r="L134" s="10">
@@ -8535,7 +8535,7 @@
       <c r="J135" s="1">
         <v>414.9</v>
       </c>
-      <c r="K135" s="10">
+      <c r="K135">
         <v>54</v>
       </c>
       <c r="L135" s="10">
@@ -8591,7 +8591,7 @@
       <c r="J136" s="1">
         <v>681.4</v>
       </c>
-      <c r="K136" s="10">
+      <c r="K136">
         <v>38</v>
       </c>
       <c r="L136" s="10">
@@ -8647,7 +8647,7 @@
       <c r="J137" s="1">
         <v>154.69999999999999</v>
       </c>
-      <c r="K137" s="10">
+      <c r="K137">
         <v>8</v>
       </c>
       <c r="L137" s="10">
@@ -8703,7 +8703,7 @@
       <c r="J138" s="1">
         <v>4140.5</v>
       </c>
-      <c r="K138" s="10">
+      <c r="K138">
         <v>54</v>
       </c>
       <c r="L138" s="10">
@@ -8759,7 +8759,7 @@
       <c r="J139" s="6">
         <v>642.70000000000005</v>
       </c>
-      <c r="K139" s="12">
+      <c r="K139" s="5">
         <v>53</v>
       </c>
       <c r="L139" s="12">
@@ -8815,7 +8815,7 @@
       <c r="J140" s="1">
         <v>5658.1</v>
       </c>
-      <c r="K140" s="10">
+      <c r="K140">
         <v>51</v>
       </c>
       <c r="L140" s="10">
@@ -8871,7 +8871,7 @@
       <c r="J141" s="1">
         <v>15230.8</v>
       </c>
-      <c r="K141" s="10">
+      <c r="K141">
         <v>49</v>
       </c>
       <c r="L141" s="10">
@@ -8927,7 +8927,7 @@
       <c r="J142" s="1">
         <v>418.1</v>
       </c>
-      <c r="K142" s="10">
+      <c r="K142">
         <v>54</v>
       </c>
       <c r="L142" s="10">
@@ -8983,7 +8983,7 @@
       <c r="J143" s="1">
         <v>115.3</v>
       </c>
-      <c r="K143" s="10">
+      <c r="K143">
         <v>8</v>
       </c>
       <c r="L143" s="10">
@@ -9039,7 +9039,7 @@
       <c r="J144" s="1">
         <v>671</v>
       </c>
-      <c r="K144" s="10">
+      <c r="K144">
         <v>38</v>
       </c>
       <c r="L144" s="10">
@@ -9095,7 +9095,7 @@
       <c r="J145" s="1">
         <v>4121.3999999999996</v>
       </c>
-      <c r="K145" s="10">
+      <c r="K145">
         <v>54</v>
       </c>
       <c r="L145" s="10">
@@ -9207,7 +9207,7 @@
       <c r="J147" s="4">
         <v>141.9</v>
       </c>
-      <c r="K147" s="11">
+      <c r="K147" s="3">
         <v>8</v>
       </c>
       <c r="L147" s="11">
@@ -9263,7 +9263,7 @@
       <c r="J148" s="1">
         <v>378.2</v>
       </c>
-      <c r="K148" s="10">
+      <c r="K148">
         <v>8</v>
       </c>
       <c r="L148" s="10">
@@ -9319,7 +9319,7 @@
       <c r="J149" s="1">
         <v>2393.1</v>
       </c>
-      <c r="K149" s="10">
+      <c r="K149">
         <v>11</v>
       </c>
       <c r="L149" s="10">
@@ -9375,7 +9375,7 @@
       <c r="J150" s="1">
         <v>152.30000000000001</v>
       </c>
-      <c r="K150" s="10">
+      <c r="K150">
         <v>9</v>
       </c>
       <c r="L150" s="10">
@@ -9431,7 +9431,7 @@
       <c r="J151" s="1">
         <v>27.3</v>
       </c>
-      <c r="K151" s="10">
+      <c r="K151">
         <v>3</v>
       </c>
       <c r="L151" s="10">
@@ -9487,7 +9487,7 @@
       <c r="J152" s="1">
         <v>970.8</v>
       </c>
-      <c r="K152" s="10">
+      <c r="K152">
         <v>2</v>
       </c>
       <c r="L152" s="10">
@@ -9543,7 +9543,7 @@
       <c r="J153" s="1">
         <v>227.7</v>
       </c>
-      <c r="K153" s="10">
+      <c r="K153">
         <v>11</v>
       </c>
       <c r="L153" s="10">
@@ -9599,7 +9599,7 @@
       <c r="J154" s="6">
         <v>342.5</v>
       </c>
-      <c r="K154" s="12">
+      <c r="K154" s="5">
         <v>8</v>
       </c>
       <c r="L154" s="12">
@@ -9655,7 +9655,7 @@
       <c r="J155" s="1">
         <v>779.6</v>
       </c>
-      <c r="K155" s="10">
+      <c r="K155">
         <v>8</v>
       </c>
       <c r="L155" s="10">
@@ -9711,7 +9711,7 @@
       <c r="J156" s="1">
         <v>2633.3</v>
       </c>
-      <c r="K156" s="10">
+      <c r="K156">
         <v>11</v>
       </c>
       <c r="L156" s="10">
@@ -9767,7 +9767,7 @@
       <c r="J157" s="1">
         <v>377.7</v>
       </c>
-      <c r="K157" s="10">
+      <c r="K157">
         <v>9</v>
       </c>
       <c r="L157" s="10">
@@ -9823,7 +9823,7 @@
       <c r="J158" s="1">
         <v>187.8</v>
       </c>
-      <c r="K158" s="10">
+      <c r="K158">
         <v>3</v>
       </c>
       <c r="L158" s="10">
@@ -9879,7 +9879,7 @@
       <c r="J159" s="1">
         <v>992.5</v>
       </c>
-      <c r="K159" s="10">
+      <c r="K159">
         <v>2</v>
       </c>
       <c r="L159" s="10">
@@ -9935,7 +9935,7 @@
       <c r="J160" s="1">
         <v>919.6</v>
       </c>
-      <c r="K160" s="10">
+      <c r="K160">
         <v>11</v>
       </c>
       <c r="L160" s="10">
@@ -9991,7 +9991,7 @@
       <c r="J161" s="6">
         <v>9026.5</v>
       </c>
-      <c r="K161" s="12">
+      <c r="K161" s="5">
         <v>8</v>
       </c>
       <c r="L161" s="12">
@@ -10047,7 +10047,7 @@
       <c r="J162" s="1">
         <v>3934.4</v>
       </c>
-      <c r="K162" s="10">
+      <c r="K162">
         <v>8</v>
       </c>
       <c r="L162" s="10">
@@ -10103,7 +10103,7 @@
       <c r="J163" s="1">
         <v>64037.7</v>
       </c>
-      <c r="K163" s="10">
+      <c r="K163">
         <v>11</v>
       </c>
       <c r="L163" s="10">
@@ -10159,7 +10159,7 @@
       <c r="J164" s="1">
         <v>1074.8</v>
       </c>
-      <c r="K164" s="10">
+      <c r="K164">
         <v>9</v>
       </c>
       <c r="L164" s="10">
@@ -10215,7 +10215,7 @@
       <c r="J165" s="1">
         <v>64.099999999999994</v>
       </c>
-      <c r="K165" s="10">
+      <c r="K165">
         <v>3</v>
       </c>
       <c r="L165" s="10">
@@ -10271,7 +10271,7 @@
       <c r="J166" s="1">
         <v>15.2</v>
       </c>
-      <c r="K166" s="10">
+      <c r="K166">
         <v>2</v>
       </c>
       <c r="L166" s="10">
@@ -10327,7 +10327,7 @@
       <c r="J167" s="1">
         <v>22763</v>
       </c>
-      <c r="K167" s="10">
+      <c r="K167">
         <v>11</v>
       </c>
       <c r="L167" s="10">
@@ -10383,7 +10383,7 @@
       <c r="J168" s="6">
         <v>9064.5</v>
       </c>
-      <c r="K168" s="12">
+      <c r="K168" s="5">
         <v>8</v>
       </c>
       <c r="L168" s="12">
@@ -10439,7 +10439,7 @@
       <c r="J169" s="1">
         <v>3918.4</v>
       </c>
-      <c r="K169" s="10">
+      <c r="K169">
         <v>8</v>
       </c>
       <c r="L169" s="10">
@@ -10495,7 +10495,7 @@
       <c r="J170" s="1">
         <v>64092.2</v>
       </c>
-      <c r="K170" s="10">
+      <c r="K170">
         <v>11</v>
       </c>
       <c r="L170" s="10">
@@ -10551,7 +10551,7 @@
       <c r="J171" s="1">
         <v>1092.2</v>
       </c>
-      <c r="K171" s="10">
+      <c r="K171">
         <v>9</v>
       </c>
       <c r="L171" s="10">
@@ -10607,7 +10607,7 @@
       <c r="J172" s="1">
         <v>3</v>
       </c>
-      <c r="K172" s="10">
+      <c r="K172">
         <v>2</v>
       </c>
       <c r="L172" s="10">
@@ -10663,7 +10663,7 @@
       <c r="J173" s="1">
         <v>17</v>
       </c>
-      <c r="K173" s="10">
+      <c r="K173">
         <v>3</v>
       </c>
       <c r="L173" s="10">
@@ -10719,7 +10719,7 @@
       <c r="J174" s="1">
         <v>22820.1</v>
       </c>
-      <c r="K174" s="10">
+      <c r="K174">
         <v>11</v>
       </c>
       <c r="L174" s="10">
@@ -10831,7 +10831,7 @@
       <c r="J176" s="4">
         <v>54.9</v>
       </c>
-      <c r="K176" s="11">
+      <c r="K176" s="3">
         <v>11</v>
       </c>
       <c r="L176" s="11">
@@ -10866,28 +10866,28 @@
       <c r="C177" t="s">
         <v>13</v>
       </c>
-      <c r="D177" s="8">
+      <c r="D177" s="1">
         <v>41.5</v>
       </c>
-      <c r="E177" s="8">
+      <c r="E177" s="1">
         <v>95.6</v>
       </c>
-      <c r="F177" s="8">
+      <c r="F177" s="1">
         <v>0.1</v>
       </c>
-      <c r="G177" s="8">
+      <c r="G177" s="1">
         <v>60.7</v>
       </c>
-      <c r="H177" s="8">
+      <c r="H177" s="1">
         <v>-8.1</v>
       </c>
-      <c r="I177" s="8">
+      <c r="I177" s="1">
         <v>348.3</v>
       </c>
-      <c r="J177" s="8">
+      <c r="J177" s="1">
         <v>356.4</v>
       </c>
-      <c r="K177" s="10">
+      <c r="K177">
         <v>14</v>
       </c>
       <c r="L177" s="10">
@@ -10943,7 +10943,7 @@
       <c r="J178" s="1">
         <v>549.29999999999995</v>
       </c>
-      <c r="K178" s="10">
+      <c r="K178">
         <v>22</v>
       </c>
       <c r="L178" s="10">
@@ -10999,7 +10999,7 @@
       <c r="J179" s="1">
         <v>25.5</v>
       </c>
-      <c r="K179" s="10">
+      <c r="K179">
         <v>15</v>
       </c>
       <c r="L179" s="10">
@@ -11055,7 +11055,7 @@
       <c r="J180" s="1">
         <v>9.5</v>
       </c>
-      <c r="K180" s="10">
+      <c r="K180">
         <v>6</v>
       </c>
       <c r="L180" s="10">
@@ -11111,7 +11111,7 @@
       <c r="J181" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K181" s="10">
+      <c r="K181">
         <v>0</v>
       </c>
       <c r="L181" s="10">
@@ -11146,28 +11146,28 @@
       <c r="C182" t="s">
         <v>22</v>
       </c>
-      <c r="D182" s="8">
+      <c r="D182" s="1">
         <v>21.3</v>
       </c>
-      <c r="E182" s="8">
+      <c r="E182" s="1">
         <v>48.8</v>
       </c>
-      <c r="F182" s="8">
+      <c r="F182" s="1">
         <v>3.3</v>
       </c>
-      <c r="G182" s="8">
+      <c r="G182" s="1">
         <v>13.2</v>
       </c>
-      <c r="H182" s="8">
+      <c r="H182" s="1">
         <v>-0.2</v>
       </c>
-      <c r="I182" s="8">
+      <c r="I182" s="1">
         <v>224.4</v>
       </c>
-      <c r="J182" s="8">
+      <c r="J182" s="1">
         <v>224.6</v>
       </c>
-      <c r="K182" s="10">
+      <c r="K182">
         <v>22</v>
       </c>
       <c r="L182" s="10">
@@ -11223,7 +11223,7 @@
       <c r="J183" s="6">
         <v>58.6</v>
       </c>
-      <c r="K183" s="12">
+      <c r="K183" s="5">
         <v>11</v>
       </c>
       <c r="L183" s="12">
@@ -11258,28 +11258,28 @@
       <c r="C184" t="s">
         <v>13</v>
       </c>
-      <c r="D184" s="8">
+      <c r="D184" s="1">
         <v>60</v>
       </c>
-      <c r="E184" s="8">
+      <c r="E184" s="1">
         <v>99.1</v>
       </c>
-      <c r="F184" s="8">
+      <c r="F184" s="1">
         <v>15.9</v>
       </c>
-      <c r="G184" s="8">
+      <c r="G184" s="1">
         <v>120.4</v>
       </c>
-      <c r="H184" s="8">
+      <c r="H184" s="1">
         <v>0.2</v>
       </c>
-      <c r="I184" s="8">
+      <c r="I184" s="1">
         <v>356.4</v>
       </c>
-      <c r="J184" s="8">
+      <c r="J184" s="1">
         <v>356.3</v>
       </c>
-      <c r="K184" s="10">
+      <c r="K184">
         <v>14</v>
       </c>
       <c r="L184" s="10">
@@ -11335,7 +11335,7 @@
       <c r="J185" s="1">
         <v>576.1</v>
       </c>
-      <c r="K185" s="10">
+      <c r="K185">
         <v>22</v>
       </c>
       <c r="L185" s="10">
@@ -11391,7 +11391,7 @@
       <c r="J186" s="1">
         <v>44.5</v>
       </c>
-      <c r="K186" s="10">
+      <c r="K186">
         <v>15</v>
       </c>
       <c r="L186" s="10">
@@ -11447,7 +11447,7 @@
       <c r="J187" s="1">
         <v>13.9</v>
       </c>
-      <c r="K187" s="10">
+      <c r="K187">
         <v>6</v>
       </c>
       <c r="L187" s="10">
@@ -11503,7 +11503,7 @@
       <c r="J188" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K188" s="10">
+      <c r="K188">
         <v>0</v>
       </c>
       <c r="L188" s="10">
@@ -11559,7 +11559,7 @@
       <c r="J189" s="1">
         <v>233</v>
       </c>
-      <c r="K189" s="10">
+      <c r="K189">
         <v>22</v>
       </c>
       <c r="L189" s="10">
@@ -11615,7 +11615,7 @@
       <c r="J190" s="6">
         <v>17431.8</v>
       </c>
-      <c r="K190" s="12">
+      <c r="K190" s="5">
         <v>11</v>
       </c>
       <c r="L190" s="12">
@@ -11671,7 +11671,7 @@
       <c r="J191" s="1">
         <v>22935.200000000001</v>
       </c>
-      <c r="K191" s="10">
+      <c r="K191">
         <v>14</v>
       </c>
       <c r="L191" s="10">
@@ -11727,7 +11727,7 @@
       <c r="J192" s="1">
         <v>44582.9</v>
       </c>
-      <c r="K192" s="10">
+      <c r="K192">
         <v>22</v>
       </c>
       <c r="L192" s="10">
@@ -11783,7 +11783,7 @@
       <c r="J193" s="1">
         <v>500.6</v>
       </c>
-      <c r="K193" s="10">
+      <c r="K193">
         <v>15</v>
       </c>
       <c r="L193" s="10">
@@ -11839,7 +11839,7 @@
       <c r="J194" s="1">
         <v>2007</v>
       </c>
-      <c r="K194" s="10">
+      <c r="K194">
         <v>6</v>
       </c>
       <c r="L194" s="10">
@@ -11895,7 +11895,7 @@
       <c r="J195" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K195" s="10">
+      <c r="K195">
         <v>0</v>
       </c>
       <c r="L195" s="10">
@@ -11930,28 +11930,28 @@
       <c r="C196" t="s">
         <v>22</v>
       </c>
-      <c r="D196" s="8">
+      <c r="D196" s="1">
         <v>2117.4</v>
       </c>
-      <c r="E196" s="8">
+      <c r="E196" s="1">
         <v>3389.9</v>
       </c>
-      <c r="F196" s="8">
+      <c r="F196" s="1">
         <v>358.9</v>
       </c>
-      <c r="G196" s="8">
+      <c r="G196" s="1">
         <v>2256.1</v>
       </c>
-      <c r="H196" s="8">
+      <c r="H196" s="1">
         <v>-5.2</v>
       </c>
-      <c r="I196" s="8">
+      <c r="I196" s="1">
         <v>10942.4</v>
       </c>
-      <c r="J196" s="8">
+      <c r="J196" s="1">
         <v>10947.5</v>
       </c>
-      <c r="K196" s="10">
+      <c r="K196">
         <v>22</v>
       </c>
       <c r="L196" s="10">
@@ -12007,7 +12007,7 @@
       <c r="J197" s="6">
         <v>17405.900000000001</v>
       </c>
-      <c r="K197" s="12">
+      <c r="K197" s="5">
         <v>11</v>
       </c>
       <c r="L197" s="12">
@@ -12042,28 +12042,28 @@
       <c r="C198" t="s">
         <v>13</v>
       </c>
-      <c r="D198" s="8">
+      <c r="D198" s="1">
         <v>2177.6</v>
       </c>
-      <c r="E198" s="8">
+      <c r="E198" s="1">
         <v>6019.1</v>
       </c>
-      <c r="F198" s="8">
+      <c r="F198" s="1">
         <v>304</v>
       </c>
-      <c r="G198" s="8">
+      <c r="G198" s="1">
         <v>771.5</v>
       </c>
-      <c r="H198" s="8">
+      <c r="H198" s="1">
         <v>92.4</v>
       </c>
-      <c r="I198" s="8">
+      <c r="I198" s="1">
         <v>22956.6</v>
       </c>
-      <c r="J198" s="8">
+      <c r="J198" s="1">
         <v>22864.3</v>
       </c>
-      <c r="K198" s="10">
+      <c r="K198">
         <v>14</v>
       </c>
       <c r="L198" s="10">
@@ -12119,7 +12119,7 @@
       <c r="J199" s="1">
         <v>44630.9</v>
       </c>
-      <c r="K199" s="10">
+      <c r="K199">
         <v>22</v>
       </c>
       <c r="L199" s="10">
@@ -12175,7 +12175,7 @@
       <c r="J200" s="1">
         <v>466</v>
       </c>
-      <c r="K200" s="10">
+      <c r="K200">
         <v>15</v>
       </c>
       <c r="L200" s="10">
@@ -12231,7 +12231,7 @@
       <c r="J201" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K201" s="10">
+      <c r="K201">
         <v>0</v>
       </c>
       <c r="L201" s="10">
@@ -12287,7 +12287,7 @@
       <c r="J202" s="1">
         <v>2043.7</v>
       </c>
-      <c r="K202" s="10">
+      <c r="K202">
         <v>6</v>
       </c>
       <c r="L202" s="10">
@@ -12322,28 +12322,28 @@
       <c r="C203" t="s">
         <v>22</v>
       </c>
-      <c r="D203" s="8">
+      <c r="D203" s="1">
         <v>2174.9</v>
       </c>
-      <c r="E203" s="8">
+      <c r="E203" s="1">
         <v>3403.4</v>
       </c>
-      <c r="F203" s="8">
+      <c r="F203" s="1">
         <v>392.5</v>
       </c>
-      <c r="G203" s="8">
+      <c r="G203" s="1">
         <v>2246.6999999999998</v>
       </c>
-      <c r="H203" s="8">
+      <c r="H203" s="1">
         <v>5.2</v>
       </c>
-      <c r="I203" s="8">
+      <c r="I203" s="1">
         <v>11053.1</v>
       </c>
-      <c r="J203" s="8">
+      <c r="J203" s="1">
         <v>11048</v>
       </c>
-      <c r="K203" s="10">
+      <c r="K203">
         <v>22</v>
       </c>
       <c r="L203" s="10">

--- a/results/merge/Results Summary Statistics.xlsx
+++ b/results/merge/Results Summary Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/CovidLongitudinal-main/code/merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5DEEBC-B637-2442-8B2D-0ACECB12ADED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BD643F-B24A-2C41-A2DA-8297AD584DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="660" windowWidth="25440" windowHeight="14060" xr2:uid="{1C1A4ACA-5BF2-2840-8835-2F449688015C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="139">
   <si>
     <t>Region</t>
   </si>
@@ -511,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -603,11 +603,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -664,6 +675,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -980,13 +1006,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3721E0-7A59-0149-8789-BB1E37E8A0FE}">
-  <dimension ref="A1:R203"/>
+  <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23:D29"/>
+      <selection pane="bottomRight" activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12368,6 +12394,455 @@
         <v>11053.13</v>
       </c>
     </row>
+    <row r="205" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G206" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H206" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I206" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J206" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K206" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L206" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N206" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P206" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q206" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R206" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B207" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C207" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207" s="27">
+        <v>1942.5</v>
+      </c>
+      <c r="E207" s="1">
+        <v>3711.9</v>
+      </c>
+      <c r="F207" s="1">
+        <v>458.4</v>
+      </c>
+      <c r="G207" s="1">
+        <v>1665.8</v>
+      </c>
+      <c r="H207" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I207" s="1">
+        <v>23695.1</v>
+      </c>
+      <c r="J207" s="1">
+        <v>23691.599999999999</v>
+      </c>
+      <c r="K207" s="10">
+        <v>189</v>
+      </c>
+      <c r="L207" s="10">
+        <v>189</v>
+      </c>
+      <c r="M207" t="s">
+        <v>58</v>
+      </c>
+      <c r="N207" s="8">
+        <v>3.5160157999999999</v>
+      </c>
+      <c r="O207" t="s">
+        <v>58</v>
+      </c>
+      <c r="P207" s="8">
+        <v>3.5160157999999999</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>52</v>
+      </c>
+      <c r="R207" s="8">
+        <v>23695.074000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A208" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C208" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" s="33">
+        <v>3973.4</v>
+      </c>
+      <c r="E208" s="1">
+        <v>4644.8999999999996</v>
+      </c>
+      <c r="F208" s="1">
+        <v>2621.9</v>
+      </c>
+      <c r="G208" s="1">
+        <v>3934.8</v>
+      </c>
+      <c r="H208" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="I208" s="1">
+        <v>23695.1</v>
+      </c>
+      <c r="J208" s="1">
+        <v>23626.9</v>
+      </c>
+      <c r="K208">
+        <v>48</v>
+      </c>
+      <c r="L208" s="10">
+        <v>48</v>
+      </c>
+      <c r="M208" t="s">
+        <v>73</v>
+      </c>
+      <c r="N208" s="8">
+        <v>68.126109999999997</v>
+      </c>
+      <c r="O208" t="s">
+        <v>73</v>
+      </c>
+      <c r="P208" s="8">
+        <v>68.126109999999997</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>52</v>
+      </c>
+      <c r="R208" s="8">
+        <v>23695.07</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A209" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B209" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="33">
+        <v>521.29999999999995</v>
+      </c>
+      <c r="E209" s="1">
+        <v>659.7</v>
+      </c>
+      <c r="F209" s="1">
+        <v>295.5</v>
+      </c>
+      <c r="G209" s="1">
+        <v>388.9</v>
+      </c>
+      <c r="H209" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="I209" s="1">
+        <v>2695.7</v>
+      </c>
+      <c r="J209" s="1">
+        <v>2648.6</v>
+      </c>
+      <c r="K209">
+        <v>33</v>
+      </c>
+      <c r="L209" s="10">
+        <v>33</v>
+      </c>
+      <c r="M209" t="s">
+        <v>38</v>
+      </c>
+      <c r="N209" s="8">
+        <v>47.169420000000002</v>
+      </c>
+      <c r="O209" t="s">
+        <v>38</v>
+      </c>
+      <c r="P209" s="8">
+        <v>47.169420000000002</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>89</v>
+      </c>
+      <c r="R209" s="8">
+        <v>2695.7220000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A210" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B210" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C210" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D210" s="33">
+        <v>2368.5</v>
+      </c>
+      <c r="E210" s="1">
+        <v>4474.3</v>
+      </c>
+      <c r="F210" s="1">
+        <v>908.3</v>
+      </c>
+      <c r="G210" s="1">
+        <v>1494.3</v>
+      </c>
+      <c r="H210" s="1">
+        <v>193.8</v>
+      </c>
+      <c r="I210" s="1">
+        <v>20763.8</v>
+      </c>
+      <c r="J210" s="1">
+        <v>20570</v>
+      </c>
+      <c r="K210">
+        <v>21</v>
+      </c>
+      <c r="L210" s="10">
+        <v>21</v>
+      </c>
+      <c r="M210" t="s">
+        <v>97</v>
+      </c>
+      <c r="N210" s="8">
+        <v>193.82730000000001</v>
+      </c>
+      <c r="O210" t="s">
+        <v>97</v>
+      </c>
+      <c r="P210" s="8">
+        <v>193.82730000000001</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>104</v>
+      </c>
+      <c r="R210" s="8">
+        <v>20763.79</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A211" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B211" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C211" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="33">
+        <v>380.7</v>
+      </c>
+      <c r="E211" s="1">
+        <v>662</v>
+      </c>
+      <c r="F211" s="1">
+        <v>166.4</v>
+      </c>
+      <c r="G211" s="1">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="H211" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I211" s="1">
+        <v>4159.8999999999996</v>
+      </c>
+      <c r="J211" s="1">
+        <v>4121.3999999999996</v>
+      </c>
+      <c r="K211">
+        <v>54</v>
+      </c>
+      <c r="L211" s="10">
+        <v>54</v>
+      </c>
+      <c r="M211" t="s">
+        <v>48</v>
+      </c>
+      <c r="N211" s="8">
+        <v>38.500799999999998</v>
+      </c>
+      <c r="O211" t="s">
+        <v>48</v>
+      </c>
+      <c r="P211" s="8">
+        <v>38.500799999999998</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>115</v>
+      </c>
+      <c r="R211" s="8">
+        <v>4159.9059999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A212" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B212" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C212" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D212" s="33">
+        <v>3733.5</v>
+      </c>
+      <c r="E212" s="1">
+        <v>6774.3</v>
+      </c>
+      <c r="F212" s="1">
+        <v>514.79999999999995</v>
+      </c>
+      <c r="G212" s="1">
+        <v>4556.3999999999996</v>
+      </c>
+      <c r="H212" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I212" s="1">
+        <v>22823.599999999999</v>
+      </c>
+      <c r="J212" s="1">
+        <v>22820.1</v>
+      </c>
+      <c r="K212">
+        <v>11</v>
+      </c>
+      <c r="L212" s="10">
+        <v>11</v>
+      </c>
+      <c r="M212" t="s">
+        <v>58</v>
+      </c>
+      <c r="N212" s="8">
+        <v>3.516016</v>
+      </c>
+      <c r="O212" t="s">
+        <v>58</v>
+      </c>
+      <c r="P212" s="8">
+        <v>3.516016</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>128</v>
+      </c>
+      <c r="R212" s="8">
+        <v>22823.58</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="36">
+        <v>2174.9</v>
+      </c>
+      <c r="E213" s="1">
+        <v>3403.4</v>
+      </c>
+      <c r="F213" s="1">
+        <v>392.5</v>
+      </c>
+      <c r="G213" s="1">
+        <v>2246.6999999999998</v>
+      </c>
+      <c r="H213" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="I213" s="1">
+        <v>11053.1</v>
+      </c>
+      <c r="J213" s="1">
+        <v>11048</v>
+      </c>
+      <c r="K213">
+        <v>22</v>
+      </c>
+      <c r="L213" s="10">
+        <v>22</v>
+      </c>
+      <c r="M213" t="s">
+        <v>56</v>
+      </c>
+      <c r="N213" s="8">
+        <v>5.173648</v>
+      </c>
+      <c r="O213" t="s">
+        <v>56</v>
+      </c>
+      <c r="P213" s="8">
+        <v>5.173648</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>54</v>
+      </c>
+      <c r="R213" s="8">
+        <v>11053.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
